--- a/trunk/DOCS/Test Cases/TC01-Create Crisis.xlsx
+++ b/trunk/DOCS/Test Cases/TC01-Create Crisis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="1" r:id="rId1"/>
@@ -280,24 +280,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -637,107 +637,250 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="30">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="4"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="4"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="4"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="4"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="4"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="4"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="4"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="4"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:9">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:9">
       <c r="A23" s="4"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:9">
       <c r="A24" s="4"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:9">
       <c r="A25" s="4"/>
     </row>
   </sheetData>
@@ -750,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
@@ -763,7 +906,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="13" t="s">
@@ -777,48 +920,48 @@
       <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="7" t="s">
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="10"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" ht="30.75" thickTop="1">
       <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
@@ -835,7 +978,7 @@
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C5" t="s">

--- a/trunk/DOCS/Test Cases/TC01-Create Crisis.xlsx
+++ b/trunk/DOCS/Test Cases/TC01-Create Crisis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Intput Type</t>
   </si>
@@ -84,21 +84,12 @@
     <t>Create a crisis with 3 letters</t>
   </si>
   <si>
-    <t>O1:Ore</t>
-  </si>
-  <si>
     <t>Explanation:</t>
   </si>
   <si>
     <t>Testcase ID: First two numbers is the use case number, second two numbers are remaining test case number. Input Explanation: O1 means option 1 will be selected for this case. Ore is the example to use in test case.</t>
   </si>
   <si>
-    <t>Earthquake</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
     <t>O1:Earthquake</t>
   </si>
   <si>
@@ -121,6 +112,66 @@
   </si>
   <si>
     <t>Error Message</t>
+  </si>
+  <si>
+    <t>Crisis Location Name</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>Letters</t>
+  </si>
+  <si>
+    <t>Numbers</t>
+  </si>
+  <si>
+    <t>Letters and Numbers</t>
+  </si>
+  <si>
+    <t>Create a crisis with out location name</t>
+  </si>
+  <si>
+    <t>O1:&lt;space&gt;</t>
+  </si>
+  <si>
+    <t>O1:Abc</t>
+  </si>
+  <si>
+    <t>Create a crisis with only numbers in location name</t>
+  </si>
+  <si>
+    <t>O3:3278648</t>
+  </si>
+  <si>
+    <t>TC01.03</t>
+  </si>
+  <si>
+    <t>TC01.04</t>
+  </si>
+  <si>
+    <t>O3:Abc 23</t>
+  </si>
+  <si>
+    <t>O3:Abcdfg</t>
+  </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t>TC01.05</t>
+  </si>
+  <si>
+    <t>Create crisis without selecting Crisis Type</t>
+  </si>
+  <si>
+    <t>O2:Abc</t>
+  </si>
+  <si>
+    <t>&lt;Not selected&gt;</t>
+  </si>
+  <si>
+    <t>O2:&lt;not selected&gt;</t>
   </si>
 </sst>
 </file>
@@ -598,14 +649,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="9" width="17.5703125" customWidth="1"/>
+    <col min="2" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
+    <col min="8" max="9" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1">
@@ -637,7 +692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -657,11 +712,9 @@
         <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9">
@@ -669,10 +722,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -681,12 +734,22 @@
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+    <row r="4" spans="1:9" ht="30">
+      <c r="A4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
@@ -891,26 +954,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="10" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
     <col min="11" max="11" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="32.25" customHeight="1">
       <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>24</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -949,7 +1019,9 @@
       <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -957,38 +1029,104 @@
       <c r="J3" s="6"/>
       <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:11" ht="30.75" thickTop="1">
+    <row r="4" spans="1:11" ht="33.75" customHeight="1" thickTop="1">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="21" customHeight="1">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="K4" t="s">
+      <c r="B5" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="30">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" t="s">
-        <v>34</v>
+    </row>
+    <row r="6" spans="1:11" ht="24.75" customHeight="1">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="26.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1007,7 +1145,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/trunk/DOCS/Test Cases/TC01-Create Crisis.xlsx
+++ b/trunk/DOCS/Test Cases/TC01-Create Crisis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>Intput Type</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Error Message</t>
   </si>
   <si>
-    <t>Crisis Location Name</t>
-  </si>
-  <si>
     <t>Space</t>
   </si>
   <si>
@@ -172,6 +169,12 @@
   </si>
   <si>
     <t>O2:&lt;not selected&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Location Name</t>
+  </si>
+  <si>
+    <t>Location Name</t>
   </si>
 </sst>
 </file>
@@ -649,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -722,10 +725,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -736,19 +739,19 @@
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="A4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -956,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1020,7 +1023,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1037,13 +1040,13 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
         <v>26</v>
@@ -1063,7 +1066,7 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" t="s">
         <v>31</v>
@@ -1071,19 +1074,19 @@
     </row>
     <row r="6" spans="1:11" ht="24.75" customHeight="1">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
         <v>31</v>
@@ -1091,10 +1094,10 @@
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -1103,7 +1106,7 @@
         <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K7" t="s">
         <v>31</v>
@@ -1111,19 +1114,19 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
         <v>31</v>

--- a/trunk/DOCS/Test Cases/TC01-Create Crisis.xlsx
+++ b/trunk/DOCS/Test Cases/TC01-Create Crisis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="1" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>Explanation:</t>
   </si>
   <si>
-    <t>Testcase ID: First two numbers is the use case number, second two numbers are remaining test case number. Input Explanation: O1 means option 1 will be selected for this case. Ore is the example to use in test case.</t>
-  </si>
-  <si>
     <t>O1:Earthquake</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>Location Name</t>
+  </si>
+  <si>
+    <t>Testcase ID: First two numbers is the use case number, second two numbers are remaining test case number. Input Explanation: O1 means option 1 will be selected for this case.Abc is the example to use in test case.</t>
   </si>
 </sst>
 </file>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -725,10 +725,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -739,19 +739,19 @@
     </row>
     <row r="4" spans="1:9" ht="30">
       <c r="A4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -959,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -983,7 +983,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
@@ -1023,7 +1023,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -1034,102 +1034,102 @@
     </row>
     <row r="4" spans="1:11" ht="33.75" customHeight="1" thickTop="1">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="21" customHeight="1">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
         <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24.75" customHeight="1">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
       <c r="K6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="26.25" customHeight="1">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
+      <c r="K7" t="s">
         <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/DOCS/Test Cases/TC01-Create Crisis.xlsx
+++ b/trunk/DOCS/Test Cases/TC01-Create Crisis.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="1" r:id="rId1"/>
     <sheet name="Test Cases" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Answer" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>Intput Type</t>
   </si>
@@ -175,6 +176,21 @@
   </si>
   <si>
     <t>Testcase ID: First two numbers is the use case number, second two numbers are remaining test case number. Input Explanation: O1 means option 1 will be selected for this case.Abc is the example to use in test case.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testers   </t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Date of testing</t>
+  </si>
+  <si>
+    <t>Waseem,Gilana,Shobha,Musthafa</t>
+  </si>
+  <si>
+    <t>14-04-10</t>
   </si>
 </sst>
 </file>
@@ -959,8 +975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1156,4 +1172,69 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/DOCS/Test Cases/TC01-Create Crisis.xlsx
+++ b/trunk/DOCS/Test Cases/TC01-Create Crisis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>Intput Type</t>
   </si>
@@ -191,6 +191,42 @@
   </si>
   <si>
     <t>14-04-10</t>
+  </si>
+  <si>
+    <t>confict b/w use and the system of define region usecase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">missing location name not in the form </t>
+  </si>
+  <si>
+    <t>conficts</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
+    <t>speling</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>extra 'o'</t>
+  </si>
+  <si>
+    <t>bugs</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Redius spelling should be changed in screen</t>
+  </si>
+  <si>
+    <t>msg incidating the crisis is created</t>
+  </si>
+  <si>
+    <t>no error msg when it not creating any crisis</t>
   </si>
 </sst>
 </file>
@@ -976,7 +1012,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1176,18 +1212,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B9"/>
+  <dimension ref="A2:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>53</v>
       </c>
@@ -1195,42 +1234,95 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/DOCS/Test Cases/TC01-Create Crisis.xlsx
+++ b/trunk/DOCS/Test Cases/TC01-Create Crisis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="1" r:id="rId1"/>
@@ -705,7 +705,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1011,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1092,7 +1092,7 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -1214,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
